--- a/history/data_ticker_1003.xlsx
+++ b/history/data_ticker_1003.xlsx
@@ -8,15 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pavel.rostov\PycharmProjects\scrapyBotTrade\history\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{166B13E5-5505-4F61-8ADB-84D45699E4C6}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9F661671-1EEB-403C-B090-17ED3F084F50}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$6:$V$6</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$6:$V$121</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -1739,7 +1739,41 @@
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
     <cellStyle name="Процентный" xfId="1" builtinId="5"/>
   </cellStyles>
-  <dxfs count="9">
+  <dxfs count="13">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -2110,7 +2144,7 @@
   <dimension ref="A1:AD123"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6:V6"/>
+      <selection activeCell="AE21" sqref="AE21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2127,11 +2161,15 @@
         <v>79</v>
       </c>
       <c r="AA1" s="7">
-        <f>Z1/115</f>
+        <f>Z1/$U$2</f>
         <v>0.68695652173913047</v>
       </c>
     </row>
     <row r="2" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="U2">
+        <f>SUBTOTAL(  2,A:A)</f>
+        <v>115</v>
+      </c>
       <c r="Y2" s="5" t="s">
         <v>512</v>
       </c>
@@ -2139,14 +2177,14 @@
         <v>13</v>
       </c>
       <c r="AA2" s="7">
-        <f t="shared" ref="AA2:AA5" si="0">Z2/115</f>
+        <f t="shared" ref="AA2:AA5" si="0">Z2/$U$2</f>
         <v>0.11304347826086956</v>
       </c>
       <c r="AC2" s="5" t="s">
         <v>516</v>
       </c>
       <c r="AD2" s="5">
-        <f>SUM(R7:R121)</f>
+        <f>SUBTOTAL( 9,R:R)</f>
         <v>3381.17</v>
       </c>
     </row>
@@ -2155,6 +2193,10 @@
         <v>44265</v>
       </c>
       <c r="K3" s="16"/>
+      <c r="U3" s="14">
+        <f>SUBTOTAL(  2,V:V)</f>
+        <v>115</v>
+      </c>
       <c r="Y3" s="5" t="s">
         <v>513</v>
       </c>
@@ -2169,7 +2211,7 @@
         <v>517</v>
       </c>
       <c r="AD3" s="13">
-        <f>SUM(X7:X121)</f>
+        <f>SUBTOTAL( 9,X:X)</f>
         <v>3473.6768337211829</v>
       </c>
     </row>
@@ -10789,52 +10831,73 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A6:V6" xr:uid="{6A45BBBC-A2E0-4062-B060-5C96E5F38C71}"/>
+  <autoFilter ref="A6:V121" xr:uid="{6A45BBBC-A2E0-4062-B060-5C96E5F38C71}"/>
   <mergeCells count="1">
     <mergeCell ref="J3:K3"/>
   </mergeCells>
   <conditionalFormatting sqref="V7:V121">
-    <cfRule type="cellIs" dxfId="8" priority="9" operator="between">
+    <cfRule type="cellIs" dxfId="12" priority="17" operator="between">
       <formula>1%</formula>
       <formula>1.5%</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="V7:V121">
-    <cfRule type="cellIs" dxfId="7" priority="8" operator="between">
+    <cfRule type="cellIs" dxfId="11" priority="16" operator="between">
       <formula>0.015</formula>
       <formula>0.02</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="V7:V121">
-    <cfRule type="cellIs" dxfId="6" priority="7" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="10" priority="15" operator="greaterThan">
       <formula>0.02</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="V7:V121">
-    <cfRule type="cellIs" dxfId="5" priority="5" operator="lessThan">
+    <cfRule type="cellIs" dxfId="9" priority="13" operator="lessThan">
       <formula>0.005</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="4" priority="6" operator="between">
+    <cfRule type="cellIs" dxfId="8" priority="14" operator="between">
       <formula>0.005</formula>
       <formula>0.01</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="V123">
+    <cfRule type="cellIs" dxfId="7" priority="12" operator="lessThan">
+      <formula>0.005</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="V123">
+    <cfRule type="cellIs" dxfId="6" priority="11" operator="greaterThan">
+      <formula>0.012</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="V123">
+    <cfRule type="cellIs" dxfId="5" priority="10" operator="greaterThan">
+      <formula>0.02</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="V123">
+    <cfRule type="cellIs" dxfId="4" priority="9" operator="between">
+      <formula>0.006</formula>
+      <formula>0.01</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="U3">
     <cfRule type="cellIs" dxfId="3" priority="4" operator="lessThan">
       <formula>0.005</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="V123">
+  <conditionalFormatting sqref="U3">
     <cfRule type="cellIs" dxfId="2" priority="3" operator="greaterThan">
       <formula>0.012</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="V123">
+  <conditionalFormatting sqref="U3">
     <cfRule type="cellIs" dxfId="1" priority="2" operator="greaterThan">
       <formula>0.02</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="V123">
+  <conditionalFormatting sqref="U3">
     <cfRule type="cellIs" dxfId="0" priority="1" operator="between">
       <formula>0.006</formula>
       <formula>0.01</formula>
